--- a/進捗管理/タスクリスト＿プログラム.xlsx
+++ b/進捗管理/タスクリスト＿プログラム.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
   <si>
     <t>タスクリスト(プログラム)</t>
     <phoneticPr fontId="1"/>
@@ -732,6 +732,34 @@
   </si>
   <si>
     <t>2h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1124,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,6 +1246,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1584,31 +1615,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="38" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="I2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="8"/>
@@ -1663,7 +1694,7 @@
       <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="31">
         <v>42864</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1747,14 +1778,20 @@
       <c r="B6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="29">
+        <v>42865</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F6" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>17</v>
@@ -1783,8 +1820,12 @@
       <c r="B7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="42">
+        <v>42866</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
         <v>53</v>
@@ -1868,15 +1909,15 @@
       <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:18" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="I10" s="12" t="s">
         <v>36</v>
       </c>
@@ -2029,12 +2070,14 @@
       <c r="L14" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N14" s="26" t="s">
         <v>52</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2044,14 +2087,20 @@
       <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="29">
+        <v>42865</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F15" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>21</v>
@@ -2076,14 +2125,20 @@
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="29">
+        <v>42865</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F16" s="26" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>22</v>
@@ -2108,8 +2163,12 @@
       <c r="B17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="42">
+        <v>42866</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="E17" s="18"/>
       <c r="F17" s="27" t="s">
         <v>53</v>
@@ -2159,15 +2218,15 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="I19" s="12" t="s">
         <v>48</v>
       </c>
@@ -2285,15 +2344,15 @@
       <c r="G23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="16" t="s">
@@ -2333,9 +2392,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="16"/>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="B25" s="9"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2359,9 +2416,7 @@
     </row>
     <row r="26" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="17"/>
-      <c r="B26" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>

--- a/進捗管理/タスクリスト＿プログラム.xlsx
+++ b/進捗管理/タスクリスト＿プログラム.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\ペンチピンチ資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16210" windowHeight="14380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16208" windowHeight="14378"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="117">
   <si>
     <t>タスクリスト(プログラム)</t>
     <phoneticPr fontId="1"/>
@@ -735,23 +735,237 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20m</t>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向井</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物に触れたときに挟みゲージを表示</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挟みゲージの位置調整</t>
+    <rPh sb="0" eb="1">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挟みゲージの色(赤、黄、緑)</t>
+    <rPh sb="0" eb="1">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーからペンチに変更</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが0になってゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物を全て抜くとクリア</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPがなくなるとゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強：HP減少</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱：HP減少</t>
+    <rPh sb="0" eb="1">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向井</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4h</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -759,11 +973,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20m</t>
+    <t>ステージ上の物体の残り個数を数字で減少させる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -771,7 +981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,13 +997,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="27">
@@ -1152,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,9 +1461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,7 +1491,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1277,9 +1648,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1596,978 +1964,1217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.6640625" style="1"/>
-    <col min="9" max="9" width="32.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.6640625" style="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6875" style="48"/>
+    <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6875" style="1"/>
+    <col min="5" max="5" width="12.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.6875" style="1"/>
+    <col min="10" max="10" width="32.6875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.6875" style="1"/>
+    <col min="13" max="13" width="12.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="2:19" s="48" customFormat="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="32" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="I2" s="39" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="J3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+    </row>
+    <row r="4" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="5" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.7">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="31">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="33">
         <v>42864</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="M6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="33">
+        <v>42864</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="35.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.7">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="33">
+        <v>42864</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="J10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="25" t="s">
+      <c r="L10" s="42">
+        <v>42864</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="P10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="35.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="J11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="33">
+        <v>42865</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="29">
-        <v>42865</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="42">
-        <v>42866</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="I8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="I9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:18" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="I10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="29">
-        <v>42865</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.7">
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.7">
+      <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="29">
-        <v>42865</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="28">
+        <v>42865</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="12" t="s">
+    </row>
+    <row r="15" spans="2:19" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="29">
+      <c r="L15" s="33">
         <v>42865</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="M15" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="26" t="s">
+      <c r="N15" s="34"/>
+      <c r="O15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
+      <c r="P15" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.7">
+      <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="29">
-        <v>42865</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="H16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="29">
-        <v>42865</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="14"/>
+      <c r="O16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="P17" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="17" t="s">
+    <row r="18" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="42">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="33">
+        <v>42864</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="J19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="33">
+        <v>42864</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B20" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="J20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="33">
+        <v>42864</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B21" s="2"/>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="53">
+        <v>42864</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="35.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="59">
         <v>42866</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="I19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="29">
-        <v>42864</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="M22" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-    </row>
-    <row r="24" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="16"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
+      <c r="J24" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="78"/>
+    </row>
+    <row r="25" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="15"/>
-      <c r="I25" s="21" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B26" s="16"/>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="15"/>
+      <c r="J26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="P26" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="19"/>
-      <c r="I26" s="21" t="s">
+    <row r="27" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B27" s="17"/>
+      <c r="C27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="19"/>
+      <c r="J27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I27" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="15" t="s">
+      <c r="N27" s="14"/>
+      <c r="O27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I28" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="9" t="s">
+    <row r="28" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="J28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="15" t="s">
+      <c r="N28" s="14"/>
+      <c r="O28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="9" t="s">
+    <row r="29" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I30" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="N29" s="14"/>
+      <c r="O29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="10">
+        <v>11</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="15" t="s">
+      <c r="N30" s="14"/>
+      <c r="O30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I31" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="9" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="14">
+        <v>12</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="N31" s="14"/>
+      <c r="O31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="14"/>
+      <c r="O32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B33" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="P33" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I33" s="22" t="s">
+    <row r="34" spans="2:16" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B34" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="K34" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18" t="s">
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="P34" s="19" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+    </row>
+    <row r="36" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B37" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B38" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="40" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B41" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B42" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/進捗管理/タスクリスト＿プログラム.xlsx
+++ b/進捗管理/タスクリスト＿プログラム.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\ペンチピンチ資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16208" windowHeight="14378"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16210" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
   <si>
     <t>タスクリスト(プログラム)</t>
     <phoneticPr fontId="1"/>
@@ -974,6 +974,56 @@
   </si>
   <si>
     <t>ステージ上の物体の残り個数を数字で減少させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20ｍ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賀川（向井）</t>
+    <rPh sb="0" eb="2">
+      <t>カガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ムカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1400,7 +1450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,9 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,9 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,9 +1530,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,6 +1689,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1966,88 +2034,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.6875" style="48"/>
+    <col min="1" max="1" width="8.6640625" style="45"/>
     <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6875" style="1"/>
-    <col min="5" max="5" width="12.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.6875" style="1"/>
-    <col min="10" max="10" width="32.6875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.6875" style="1"/>
-    <col min="13" max="13" width="12.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6875" style="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="32.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="48" customFormat="1" x14ac:dyDescent="0.7"/>
-    <row r="2" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="79" t="s">
+    <row r="1" spans="2:19" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-    </row>
-    <row r="3" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="73" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+    </row>
+    <row r="3" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="J3" s="80" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-    </row>
-    <row r="4" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
+    </row>
+    <row r="4" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -2057,35 +2127,35 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.7">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="36" t="s">
         <v>63</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -2095,39 +2165,43 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="30">
+        <v>42864</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="30">
         <v>42864</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35" t="s">
+      <c r="N6" s="31"/>
+      <c r="O6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="33" t="s">
         <v>80</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -2137,1030 +2211,1090 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="35.25" x14ac:dyDescent="0.7">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="D7" s="30">
+        <v>42864</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="30">
+        <v>42864</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="82">
+        <v>42866</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="J9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="30">
+        <v>42864</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="J10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="39">
+        <v>42864</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="J11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="30">
+        <v>42865</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="26">
+        <v>42867</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="32" t="s">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="26">
+        <v>42867</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="26">
+        <v>42865</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="26">
+        <v>42867</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="30">
+        <v>42865</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="30">
+        <v>42864</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="82">
+        <v>42866</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L18" s="30">
         <v>42864</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M18" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J19" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="30">
+        <v>42864</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+      <c r="J20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="30">
+        <v>42864</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="50">
+        <v>42864</v>
+      </c>
+      <c r="M21" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35" t="s">
+      <c r="N21" s="51"/>
+      <c r="O21" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="35.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="P21" s="53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
+      <c r="D22" s="88">
+        <v>42870</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="56">
+        <v>42866</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="57"/>
+      <c r="O22" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="88">
+        <v>42870</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="J24" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="75"/>
+    </row>
+    <row r="25" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="88">
+        <v>42870</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="15"/>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="14"/>
+      <c r="J26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="16"/>
+      <c r="C27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="26">
+        <v>42868</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="26">
+        <v>42868</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="26">
+        <v>42868</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="9">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="13">
+        <v>12</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="26">
+        <v>42869</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="26">
+        <v>42869</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" s="68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+    </row>
+    <row r="36" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="22"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.7">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="J9" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="33">
-        <v>42864</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="J10" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="42">
-        <v>42864</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="35.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B11" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-      <c r="J11" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="33">
-        <v>42865</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B38" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="40" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.7">
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.7">
-      <c r="B14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="28">
-        <v>42865</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="35.25" x14ac:dyDescent="0.7">
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="33">
-        <v>42865</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.7">
-      <c r="B16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="33">
-        <v>42864</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="J19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="33">
-        <v>42864</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B20" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="J20" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="33">
-        <v>42864</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="53">
-        <v>42864</v>
-      </c>
-      <c r="M21" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="35.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="59">
-        <v>42866</v>
-      </c>
-      <c r="M22" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="P22" s="62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
-    </row>
-    <row r="25" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B26" s="16"/>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="15"/>
-      <c r="J26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B27" s="17"/>
-      <c r="C27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="19"/>
-      <c r="J27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="J28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B30" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="10" t="s">
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="10">
-        <v>11</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="H41" s="62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B42" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="14">
-        <v>12</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B32" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B34" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-    </row>
-    <row r="36" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B38" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="40" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B41" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B42" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="65" t="s">
         <v>107</v>
       </c>
     </row>

--- a/進捗管理/タスクリスト＿プログラム.xlsx
+++ b/進捗管理/タスクリスト＿プログラム.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
   <si>
     <t>タスクリスト(プログラム)</t>
     <phoneticPr fontId="1"/>
@@ -526,13 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポーズ中のBGM</t>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動、ジャンプ</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -1024,6 +1017,24 @@
     <rPh sb="3" eb="5">
       <t>ムカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ中のBGM（廃止）</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1517,9 +1528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,6 +1669,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,31 +1726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2034,13 +2045,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="45"/>
+    <col min="1" max="1" width="8.6640625" style="44"/>
     <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
@@ -2053,33 +2064,33 @@
     <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="1" spans="2:19" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="J3" s="77" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="J3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="7"/>
@@ -2114,17 +2125,17 @@
       <c r="N4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
@@ -2132,146 +2143,146 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="29">
+        <v>42864</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="29">
+        <v>42864</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="29">
+        <v>42864</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="80" t="s">
+      <c r="H7" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="29">
+        <v>42864</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="30">
-        <v>42864</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="D8" s="71">
+        <v>42866</v>
+      </c>
+      <c r="E8" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="30">
-        <v>42864</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32" t="s">
+      <c r="F8" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="30">
-        <v>42864</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="33" t="s">
+      <c r="H8" s="67" t="s">
         <v>123</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="30">
-        <v>42864</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="82">
-        <v>42866</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>124</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>18</v>
@@ -2280,17 +2291,17 @@
         <v>32</v>
       </c>
       <c r="L8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="N8" s="13"/>
-      <c r="O8" s="23" t="s">
-        <v>53</v>
+      <c r="O8" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R8" s="20"/>
     </row>
@@ -2302,24 +2313,24 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="J9" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="J9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="29">
         <v>42864</v>
       </c>
-      <c r="M9" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>79</v>
+      <c r="M9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="R9" s="20"/>
     </row>
@@ -2331,66 +2342,66 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="38">
+        <v>42864</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="P10" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="J11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="39">
-        <v>42864</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="42" t="s">
+      <c r="L11" s="29">
+        <v>42865</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="J11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="30">
-        <v>42865</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="46" t="s">
+      <c r="S11" s="46" t="s">
         <v>84</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2419,33 +2430,33 @@
       <c r="K12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="25">
         <v>42867</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="23" t="s">
-        <v>55</v>
+      <c r="O12" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>63</v>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>37</v>
@@ -2453,33 +2464,33 @@
       <c r="K13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <v>42867</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="23" t="s">
-        <v>55</v>
+      <c r="O13" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>63</v>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>19</v>
@@ -2487,18 +2498,18 @@
       <c r="K14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>42865</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="23" t="s">
-        <v>54</v>
+      <c r="O14" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2508,60 +2519,60 @@
       <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>42867</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="23" t="s">
-        <v>53</v>
+      <c r="G15" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="29">
         <v>42865</v>
       </c>
-      <c r="M15" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>83</v>
+      <c r="M15" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>42864</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>66</v>
+      <c r="G16" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>21</v>
@@ -2572,11 +2583,11 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="23" t="s">
-        <v>53</v>
+      <c r="O16" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
@@ -2589,11 +2600,11 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="23" t="s">
-        <v>53</v>
+      <c r="G17" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>22</v>
@@ -2604,104 +2615,104 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="71">
+        <v>42866</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="29">
+        <v>42864</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="29">
+        <v>42864</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="J20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="29">
+        <v>42864</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="82">
-        <v>42866</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="30">
-        <v>42864</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="J19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="30">
-        <v>42864</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
-      <c r="J20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="30">
-        <v>42864</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>79</v>
+      <c r="P20" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2724,81 +2735,83 @@
       <c r="H21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="49" t="s">
+      <c r="J21" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="49">
         <v>42864</v>
       </c>
-      <c r="M21" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>66</v>
+      <c r="M21" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="88">
         <v>42870</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="55" t="s">
+      <c r="E22" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="55">
+        <v>42866</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="56">
-        <v>42866</v>
-      </c>
-      <c r="M22" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58" t="s">
+      <c r="P22" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="59" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="23" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>63</v>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2808,46 +2821,46 @@
       <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="77">
         <v>42870</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="23" t="s">
-        <v>59</v>
+      <c r="G24" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
     </row>
     <row r="25" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="15" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="77">
         <v>42870</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="23" t="s">
-        <v>55</v>
+      <c r="G25" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="4" t="s">
@@ -2877,22 +2890,22 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="14"/>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>63</v>
+      <c r="K26" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2903,7 +2916,7 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="18"/>
       <c r="J27" s="19" t="s">
         <v>24</v>
@@ -2911,18 +2924,18 @@
       <c r="K27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="25">
         <v>42868</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2932,23 +2945,23 @@
       <c r="K28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="25">
         <v>42868</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>11</v>
@@ -2974,111 +2987,111 @@
       <c r="K29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="25">
         <v>42868</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="9">
         <v>11</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" s="33" t="s">
-        <v>63</v>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="13">
         <v>12</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>63</v>
+      <c r="K31" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>29</v>
@@ -3086,39 +3099,39 @@
       <c r="K32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="25">
         <v>42869</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>25</v>
@@ -3126,64 +3139,64 @@
       <c r="K33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="25">
         <v>42869</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" s="87" t="s">
+      <c r="H34" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="84" t="s">
+      <c r="K34" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="P34" s="68" t="s">
-        <v>63</v>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="67" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>11</v>
@@ -3206,44 +3219,44 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B38" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="67" t="s">
+      <c r="B38" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>107</v>
+      <c r="H38" s="67" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="40" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
@@ -3265,37 +3278,37 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B42" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61" t="s">
+      <c r="C42" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64" t="s">
+      <c r="H42" s="64" t="s">
         <v>106</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
